--- a/Documentatie/persoonlijke burndown charts/20171121_burndownchart_per_ll Max .xlsx
+++ b/Documentatie/persoonlijke burndown charts/20171121_burndownchart_per_ll Max .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edurocwb-my.sharepoint.com/personal/d230195_edu_rocwb_nl/Documents/Periode_6/project/Asteroids/Documentatie/persoonlijke burndown charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="B328566C709F37C03BB96C87CDACE9AEE00CDE33" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{C38CC958-3DCF-4A54-BEE7-B78FCB81B18B}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="103_{12861CA0-3729-4FC6-B6FB-361A4ED07662}" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{C0B87D51-9F82-4705-BF89-4158E6820DAF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -639,7 +639,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="66">
   <si>
     <t>Omschrijving taak</t>
   </si>
@@ -809,15 +809,6 @@
     <t>Eind dag 10</t>
   </si>
   <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t15</t>
-  </si>
-  <si>
-    <t>Testkees</t>
-  </si>
-  <si>
     <t>controll sheet</t>
   </si>
   <si>
@@ -842,19 +833,10 @@
     <t>astroids onderzoeken</t>
   </si>
   <si>
-    <t>wireframes maken</t>
+    <t>Max</t>
   </si>
   <si>
-    <t>design storyboard</t>
-  </si>
-  <si>
-    <t>maken burndown</t>
-  </si>
-  <si>
-    <t>inrichten bord</t>
-  </si>
-  <si>
-    <t>documentatie rollen</t>
+    <t>Ontwerpen storyboard</t>
   </si>
 </sst>
 </file>
@@ -1954,14 +1936,19 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1971,14 +1958,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1991,6 +1970,9 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2467,37 +2449,37 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.3</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.599999999999994</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.899999999999991</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.199999999999989</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.499999999999986</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.799999999999986</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.099999999999987</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.399999999999988</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.6999999999999877</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.2434497875801753E-14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2581,37 +2563,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4588,37 +4570,37 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.3</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.599999999999994</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.899999999999991</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.199999999999989</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.499999999999986</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.799999999999986</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.099999999999987</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.399999999999988</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.6999999999999877</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.2434497875801753E-14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4663,37 +4645,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5028,37 +5010,37 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.3</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.599999999999994</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.899999999999991</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.199999999999989</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.499999999999986</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.799999999999986</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.099999999999987</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.399999999999988</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.6999999999999877</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.2434497875801753E-14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5103,37 +5085,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5468,37 +5450,37 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.3</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.599999999999994</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.899999999999991</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.199999999999989</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.499999999999986</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.799999999999986</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.099999999999987</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.399999999999988</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.6999999999999877</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.2434497875801753E-14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5543,37 +5525,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5908,37 +5890,37 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.3</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.599999999999994</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.899999999999991</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.199999999999989</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.499999999999986</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.799999999999986</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.099999999999987</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.399999999999988</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.6999999999999877</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.2434497875801753E-14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5983,37 +5965,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6318,7 +6300,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -13533,7 +13515,7 @@
   <dimension ref="A1:AI204"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13563,35 +13545,35 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="43"/>
-      <c r="B1" s="117" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
+      <c r="B1" s="116" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
       <c r="M1" s="44"/>
       <c r="S1" s="44"/>
     </row>
     <row r="2" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
       <c r="M2" s="44"/>
       <c r="S2" s="44"/>
       <c r="AF2" s="82" t="s">
@@ -13605,10 +13587,10 @@
       <c r="D3" s="44"/>
       <c r="E3" s="44"/>
       <c r="F3" s="44"/>
-      <c r="G3" s="108" t="s">
+      <c r="G3" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="109"/>
+      <c r="H3" s="108"/>
       <c r="I3" s="45"/>
       <c r="J3" s="44"/>
       <c r="K3" s="44"/>
@@ -13636,7 +13618,7 @@
       </c>
       <c r="AE4" s="82" t="str">
         <f>B1</f>
-        <v>Testkees</v>
+        <v>Max</v>
       </c>
       <c r="AF4" s="81" t="s">
         <v>41</v>
@@ -13698,11 +13680,11 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="111" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="63">
         <v>3</v>
@@ -13719,11 +13701,11 @@
       </c>
       <c r="G6" s="17">
         <f>AB8</f>
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="H6" s="20">
         <f>AB8-F6</f>
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="I6" s="21">
         <f>G6-H6</f>
@@ -13734,29 +13716,29 @@
       </c>
       <c r="AE6" s="78">
         <f>I19</f>
-        <v>6.7</v>
+        <v>4</v>
       </c>
       <c r="AF6" s="79">
         <f>I20</f>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AG6" s="79">
         <f>I21</f>
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="AH6" s="79" t="str">
         <f>IF(AF6="","",IF(AF6&lt;AG6,"Te weinig","Keurig"))</f>
-        <v>Te weinig</v>
+        <v>Keurig</v>
       </c>
       <c r="AI6" s="87">
         <f>H26</f>
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
+      <c r="A7" s="112"/>
       <c r="B7" s="34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" s="69">
         <v>10</v>
@@ -13770,15 +13752,15 @@
       </c>
       <c r="G7" s="101">
         <f>(G6-(AB$8/10))</f>
-        <v>60.3</v>
+        <v>36</v>
       </c>
       <c r="H7" s="96">
         <f>IF(F7="",NA(),H6-F7)</f>
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="I7" s="22">
         <f t="shared" ref="I7:I10" si="0">IF(F7="","",G7-H7)</f>
-        <v>-6.7000000000000028</v>
+        <v>-4</v>
       </c>
       <c r="AD7" s="86"/>
       <c r="AE7" s="78"/>
@@ -13788,9 +13770,9 @@
       <c r="AI7" s="87"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="111"/>
+      <c r="A8" s="112"/>
       <c r="B8" s="34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C8" s="65">
         <v>5</v>
@@ -13807,22 +13789,22 @@
       </c>
       <c r="G8" s="18">
         <f>(G7-(AB$8/10))</f>
-        <v>53.599999999999994</v>
+        <v>32</v>
       </c>
       <c r="H8" s="96">
         <f>IF(F8="",NA(),H7-F8)</f>
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="I8" s="22">
         <f t="shared" si="0"/>
-        <v>-13.400000000000006</v>
+        <v>-8</v>
       </c>
       <c r="AA8" t="s">
         <v>3</v>
       </c>
       <c r="AB8">
         <f>SUM(C6:C26)</f>
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="AD8" s="86" t="s">
         <v>35</v>
@@ -13849,9 +13831,9 @@
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="111"/>
+      <c r="A9" s="112"/>
       <c r="B9" s="34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C9" s="65">
         <v>3</v>
@@ -13868,15 +13850,15 @@
       </c>
       <c r="G9" s="18">
         <f t="shared" ref="G9:G16" si="3">(G8-(AB$8/10))</f>
-        <v>46.899999999999991</v>
+        <v>28</v>
       </c>
       <c r="H9" s="96">
         <f t="shared" ref="H9:H16" si="4">IF(F9="",NA(),H8-F9)</f>
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="I9" s="22">
         <f t="shared" si="0"/>
-        <v>-20.100000000000009</v>
+        <v>-12</v>
       </c>
       <c r="AD9" s="86" t="s">
         <v>36</v>
@@ -13903,9 +13885,9 @@
       </c>
     </row>
     <row r="10" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="111"/>
+      <c r="A10" s="112"/>
       <c r="B10" s="34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" s="65">
         <v>5</v>
@@ -13922,15 +13904,15 @@
       </c>
       <c r="G10" s="18">
         <f t="shared" si="3"/>
-        <v>40.199999999999989</v>
+        <v>24</v>
       </c>
       <c r="H10" s="96">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I10" s="22">
         <f t="shared" si="0"/>
-        <v>-3.8000000000000114</v>
+        <v>7</v>
       </c>
       <c r="AD10" s="88" t="s">
         <v>37</v>
@@ -13957,9 +13939,9 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="111"/>
+      <c r="A11" s="112"/>
       <c r="B11" s="34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C11" s="65">
         <v>2</v>
@@ -13976,21 +13958,21 @@
       </c>
       <c r="G11" s="18">
         <f t="shared" si="3"/>
-        <v>33.499999999999986</v>
+        <v>20</v>
       </c>
       <c r="H11" s="96">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I11" s="22">
         <f>IF(F11="","",G11-H11)</f>
-        <v>-8.5000000000000142</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="111"/>
+      <c r="A12" s="112"/>
       <c r="B12" s="34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C12" s="65">
         <v>1</v>
@@ -14003,25 +13985,25 @@
         <v>51</v>
       </c>
       <c r="F12" s="75">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G12" s="18">
         <f t="shared" si="3"/>
-        <v>26.799999999999986</v>
+        <v>16</v>
       </c>
       <c r="H12" s="96">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I12" s="22">
         <f t="shared" ref="I12:I16" si="5">IF(F12="","",G12-H12)</f>
-        <v>-15.200000000000014</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
+      <c r="A13" s="112"/>
       <c r="B13" s="34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C13" s="65">
         <v>1</v>
@@ -14038,21 +14020,21 @@
       </c>
       <c r="G13" s="18">
         <f t="shared" si="3"/>
-        <v>20.099999999999987</v>
+        <v>12</v>
       </c>
       <c r="H13" s="96">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I13" s="22">
         <f t="shared" si="5"/>
-        <v>-21.900000000000013</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="111"/>
+      <c r="A14" s="112"/>
       <c r="B14" s="34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" s="65">
         <v>10</v>
@@ -14069,28 +14051,24 @@
       </c>
       <c r="G14" s="18">
         <f t="shared" si="3"/>
-        <v>13.399999999999988</v>
+        <v>8</v>
       </c>
       <c r="H14" s="96">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I14" s="22">
         <f t="shared" si="5"/>
-        <v>-28.600000000000012</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="111"/>
-      <c r="B15" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="65">
-        <v>10</v>
-      </c>
+      <c r="A15" s="112"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>Fout</v>
+        <v/>
       </c>
       <c r="E15" s="99" t="s">
         <v>54</v>
@@ -14100,28 +14078,24 @@
       </c>
       <c r="G15" s="18">
         <f t="shared" si="3"/>
-        <v>6.6999999999999877</v>
+        <v>4</v>
       </c>
       <c r="H15" s="96">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I15" s="22">
         <f t="shared" si="5"/>
-        <v>-35.300000000000011</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:35" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="111"/>
-      <c r="B16" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="65">
-        <v>0.5</v>
-      </c>
+      <c r="A16" s="112"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>Fout</v>
+        <v/>
       </c>
       <c r="E16" s="102" t="s">
         <v>55</v>
@@ -14131,28 +14105,24 @@
       </c>
       <c r="G16" s="19">
         <f t="shared" si="3"/>
-        <v>-1.2434497875801753E-14</v>
+        <v>0</v>
       </c>
       <c r="H16" s="97">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I16" s="77">
         <f t="shared" si="5"/>
-        <v>-42.000000000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="111"/>
-      <c r="B17" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="65">
-        <v>0.5</v>
-      </c>
+      <c r="A17" s="112"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>Fout</v>
+        <v/>
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="47"/>
@@ -14161,13 +14131,9 @@
       <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:19" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="111"/>
-      <c r="B18" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="65">
-        <v>3</v>
-      </c>
+      <c r="A18" s="112"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -14179,13 +14145,9 @@
       <c r="I18" s="50"/>
     </row>
     <row r="19" spans="1:19" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="111"/>
-      <c r="B19" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="65">
-        <v>5</v>
-      </c>
+      <c r="A19" s="112"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -14198,57 +14160,51 @@
       </c>
       <c r="I19" s="28">
         <f>AB8/10</f>
-        <v>6.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="111"/>
-      <c r="B20" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="65">
-        <v>3</v>
-      </c>
+      <c r="A20" s="112"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E20" s="113" t="str">
+      <c r="E20" s="109" t="str">
         <f>IF(F16&lt;&gt;"","# Uren afgetikt aan het eind van de sprint:","")</f>
         <v># Uren afgetikt aan het eind van de sprint:</v>
       </c>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
       <c r="I20" s="12">
         <f>IF(F16&lt;&gt;"",SUM(F6:F16),"")</f>
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:19" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="111"/>
+      <c r="A21" s="112"/>
       <c r="B21" s="64"/>
-      <c r="C21" s="65">
-        <v>5</v>
-      </c>
+      <c r="C21" s="65"/>
       <c r="D21" s="61" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E21" s="115" t="str">
+      <c r="E21" s="114" t="str">
         <f>IF(F16&lt;&gt;"","Dit moesten er zijn:","")</f>
         <v>Dit moesten er zijn:</v>
       </c>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
       <c r="I21" s="16">
         <f>IF(F16&lt;&gt;"",AB8,"")</f>
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="111"/>
+      <c r="A22" s="112"/>
       <c r="B22" s="64"/>
       <c r="C22" s="65"/>
       <c r="D22" s="61" t="str">
@@ -14261,11 +14217,11 @@
       <c r="H22" s="47"/>
       <c r="I22" s="51" t="str">
         <f>IF(F16="","",IF(I20&lt;I21,"Dus te weinig.","Keurig"))</f>
-        <v>Dus te weinig.</v>
+        <v>Keurig</v>
       </c>
     </row>
     <row r="23" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="111"/>
+      <c r="A23" s="112"/>
       <c r="B23" s="64"/>
       <c r="C23" s="65"/>
       <c r="D23" s="61" t="str">
@@ -14279,7 +14235,7 @@
       <c r="I23" s="50"/>
     </row>
     <row r="24" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="111"/>
+      <c r="A24" s="112"/>
       <c r="B24" s="64"/>
       <c r="C24" s="65"/>
       <c r="D24" s="61" t="str">
@@ -14293,7 +14249,7 @@
       <c r="I24" s="50"/>
     </row>
     <row r="25" spans="1:19" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="111"/>
+      <c r="A25" s="112"/>
       <c r="B25" s="64"/>
       <c r="C25" s="65"/>
       <c r="D25" s="61" t="str">
@@ -14307,7 +14263,7 @@
       <c r="I25" s="50"/>
     </row>
     <row r="26" spans="1:19" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="112"/>
+      <c r="A26" s="113"/>
       <c r="B26" s="66"/>
       <c r="C26" s="67"/>
       <c r="D26" s="62" t="str">
@@ -14321,26 +14277,26 @@
       <c r="G26" s="25"/>
       <c r="H26" s="26">
         <f>I20</f>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
-      <c r="B27" s="107" t="str">
+      <c r="B27" s="117" t="str">
         <f>B1</f>
-        <v>Testkees</v>
-      </c>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107"/>
+        <v>Max</v>
+      </c>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="117"/>
       <c r="M27" s="44"/>
       <c r="N27" s="44"/>
       <c r="O27" s="44"/>
@@ -14351,17 +14307,17 @@
     </row>
     <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="107"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="117"/>
       <c r="M28" s="44"/>
       <c r="N28" s="44"/>
       <c r="O28" s="44"/>
@@ -14377,10 +14333,10 @@
       <c r="D29" s="44"/>
       <c r="E29" s="44"/>
       <c r="F29" s="44"/>
-      <c r="G29" s="108" t="s">
+      <c r="G29" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="109"/>
+      <c r="H29" s="108"/>
       <c r="I29" s="45"/>
       <c r="J29" s="44"/>
       <c r="K29" s="44"/>
@@ -14450,7 +14406,7 @@
       <c r="S31" s="44"/>
     </row>
     <row r="32" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="110" t="s">
+      <c r="A32" s="111" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="33"/>
@@ -14479,7 +14435,7 @@
       </c>
     </row>
     <row r="33" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="111"/>
+      <c r="A33" s="112"/>
       <c r="B33" s="34"/>
       <c r="C33" s="104"/>
       <c r="D33" s="98"/>
@@ -14501,7 +14457,7 @@
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="111"/>
+      <c r="A34" s="112"/>
       <c r="B34" s="64"/>
       <c r="C34" s="68"/>
       <c r="D34" s="61" t="str">
@@ -14533,7 +14489,7 @@
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="111"/>
+      <c r="A35" s="112"/>
       <c r="B35" s="64"/>
       <c r="C35" s="65"/>
       <c r="D35" s="61" t="str">
@@ -14558,7 +14514,7 @@
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="111"/>
+      <c r="A36" s="112"/>
       <c r="B36" s="64"/>
       <c r="C36" s="65"/>
       <c r="D36" s="61" t="str">
@@ -14583,7 +14539,7 @@
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" s="111"/>
+      <c r="A37" s="112"/>
       <c r="B37" s="64"/>
       <c r="C37" s="65"/>
       <c r="D37" s="61" t="str">
@@ -14608,7 +14564,7 @@
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="111"/>
+      <c r="A38" s="112"/>
       <c r="B38" s="64"/>
       <c r="C38" s="65"/>
       <c r="D38" s="61" t="str">
@@ -14633,7 +14589,7 @@
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" s="111"/>
+      <c r="A39" s="112"/>
       <c r="B39" s="64"/>
       <c r="C39" s="65"/>
       <c r="D39" s="61" t="str">
@@ -14658,7 +14614,7 @@
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="111"/>
+      <c r="A40" s="112"/>
       <c r="B40" s="64"/>
       <c r="C40" s="65"/>
       <c r="D40" s="61" t="str">
@@ -14683,7 +14639,7 @@
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="111"/>
+      <c r="A41" s="112"/>
       <c r="B41" s="64"/>
       <c r="C41" s="65"/>
       <c r="D41" s="61" t="str">
@@ -14708,7 +14664,7 @@
       </c>
     </row>
     <row r="42" spans="1:28" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="111"/>
+      <c r="A42" s="112"/>
       <c r="B42" s="64"/>
       <c r="C42" s="65"/>
       <c r="D42" s="61" t="str">
@@ -14733,7 +14689,7 @@
       </c>
     </row>
     <row r="43" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="111"/>
+      <c r="A43" s="112"/>
       <c r="B43" s="64"/>
       <c r="C43" s="65"/>
       <c r="D43" s="61" t="str">
@@ -14747,7 +14703,7 @@
       <c r="I43" s="50"/>
     </row>
     <row r="44" spans="1:28" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="111"/>
+      <c r="A44" s="112"/>
       <c r="B44" s="64"/>
       <c r="C44" s="65"/>
       <c r="D44" s="61" t="str">
@@ -14761,7 +14717,7 @@
       <c r="I44" s="50"/>
     </row>
     <row r="45" spans="1:28" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="111"/>
+      <c r="A45" s="112"/>
       <c r="B45" s="64"/>
       <c r="C45" s="65"/>
       <c r="D45" s="61" t="str">
@@ -14780,47 +14736,47 @@
       </c>
     </row>
     <row r="46" spans="1:28" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="111"/>
+      <c r="A46" s="112"/>
       <c r="B46" s="64"/>
       <c r="C46" s="65"/>
       <c r="D46" s="61" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E46" s="113" t="str">
+      <c r="E46" s="109" t="str">
         <f>IF(F42&lt;&gt;"","# Uren afgetikt aan het eind van de sprint:","")</f>
         <v/>
       </c>
-      <c r="F46" s="114"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="114"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="110"/>
       <c r="I46" s="12" t="str">
         <f>IF(F42&lt;&gt;"",SUM(F32:F42),"")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:28" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="111"/>
+      <c r="A47" s="112"/>
       <c r="B47" s="64"/>
       <c r="C47" s="65"/>
       <c r="D47" s="61" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E47" s="115" t="str">
+      <c r="E47" s="114" t="str">
         <f>IF(F42&lt;&gt;"","Dit moesten er zijn:","")</f>
         <v/>
       </c>
-      <c r="F47" s="116"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="116"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="115"/>
       <c r="I47" s="16" t="str">
         <f>IF(F42&lt;&gt;"",AB34,"")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="111"/>
+      <c r="A48" s="112"/>
       <c r="B48" s="34"/>
       <c r="C48" s="69"/>
       <c r="D48" s="61" t="str">
@@ -14837,7 +14793,7 @@
       </c>
     </row>
     <row r="49" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="111"/>
+      <c r="A49" s="112"/>
       <c r="B49" s="34"/>
       <c r="C49" s="65"/>
       <c r="D49" s="61" t="str">
@@ -14851,7 +14807,7 @@
       <c r="I49" s="50"/>
     </row>
     <row r="50" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="111"/>
+      <c r="A50" s="112"/>
       <c r="B50" s="34"/>
       <c r="C50" s="65"/>
       <c r="D50" s="61" t="str">
@@ -14865,7 +14821,7 @@
       <c r="I50" s="50"/>
     </row>
     <row r="51" spans="1:28" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="111"/>
+      <c r="A51" s="112"/>
       <c r="B51" s="34"/>
       <c r="C51" s="65"/>
       <c r="D51" s="61" t="str">
@@ -14879,7 +14835,7 @@
       <c r="I51" s="50"/>
     </row>
     <row r="52" spans="1:28" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="112"/>
+      <c r="A52" s="113"/>
       <c r="B52" s="70"/>
       <c r="C52" s="67"/>
       <c r="D52" s="62" t="str">
@@ -14899,20 +14855,20 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="43"/>
-      <c r="B53" s="107" t="str">
+      <c r="B53" s="117" t="str">
         <f>B1</f>
-        <v>Testkees</v>
-      </c>
-      <c r="C53" s="107"/>
-      <c r="D53" s="107"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="107"/>
-      <c r="G53" s="107"/>
-      <c r="H53" s="107"/>
-      <c r="I53" s="107"/>
-      <c r="J53" s="107"/>
-      <c r="K53" s="107"/>
-      <c r="L53" s="107"/>
+        <v>Max</v>
+      </c>
+      <c r="C53" s="117"/>
+      <c r="D53" s="117"/>
+      <c r="E53" s="117"/>
+      <c r="F53" s="117"/>
+      <c r="G53" s="117"/>
+      <c r="H53" s="117"/>
+      <c r="I53" s="117"/>
+      <c r="J53" s="117"/>
+      <c r="K53" s="117"/>
+      <c r="L53" s="117"/>
       <c r="M53" s="44"/>
       <c r="N53" s="44"/>
       <c r="O53" s="44"/>
@@ -14923,17 +14879,17 @@
     </row>
     <row r="54" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="43"/>
-      <c r="B54" s="107"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="107"/>
-      <c r="E54" s="107"/>
-      <c r="F54" s="107"/>
-      <c r="G54" s="107"/>
-      <c r="H54" s="107"/>
-      <c r="I54" s="107"/>
-      <c r="J54" s="107"/>
-      <c r="K54" s="107"/>
-      <c r="L54" s="107"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="117"/>
+      <c r="E54" s="117"/>
+      <c r="F54" s="117"/>
+      <c r="G54" s="117"/>
+      <c r="H54" s="117"/>
+      <c r="I54" s="117"/>
+      <c r="J54" s="117"/>
+      <c r="K54" s="117"/>
+      <c r="L54" s="117"/>
       <c r="M54" s="44"/>
       <c r="N54" s="44"/>
       <c r="O54" s="44"/>
@@ -14949,10 +14905,10 @@
       <c r="D55" s="44"/>
       <c r="E55" s="44"/>
       <c r="F55" s="44"/>
-      <c r="G55" s="108" t="s">
+      <c r="G55" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="109"/>
+      <c r="H55" s="108"/>
       <c r="I55" s="45"/>
       <c r="J55" s="44"/>
       <c r="K55" s="44"/>
@@ -15022,7 +14978,7 @@
       <c r="S57" s="44"/>
     </row>
     <row r="58" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="110" t="s">
+      <c r="A58" s="111" t="s">
         <v>24</v>
       </c>
       <c r="B58" s="33"/>
@@ -15052,7 +15008,7 @@
       <c r="J58" s="106"/>
     </row>
     <row r="59" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="111"/>
+      <c r="A59" s="112"/>
       <c r="B59" s="34"/>
       <c r="C59" s="104"/>
       <c r="D59" s="98"/>
@@ -15075,7 +15031,7 @@
       <c r="J59" s="106"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A60" s="111"/>
+      <c r="A60" s="112"/>
       <c r="B60" s="64"/>
       <c r="C60" s="68"/>
       <c r="D60" s="61" t="str">
@@ -15108,7 +15064,7 @@
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A61" s="111"/>
+      <c r="A61" s="112"/>
       <c r="B61" s="64"/>
       <c r="C61" s="65"/>
       <c r="D61" s="61" t="str">
@@ -15134,7 +15090,7 @@
       <c r="J61" s="106"/>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A62" s="111"/>
+      <c r="A62" s="112"/>
       <c r="B62" s="64"/>
       <c r="C62" s="65"/>
       <c r="D62" s="61" t="str">
@@ -15160,7 +15116,7 @@
       <c r="J62" s="106"/>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A63" s="111"/>
+      <c r="A63" s="112"/>
       <c r="B63" s="64"/>
       <c r="C63" s="65"/>
       <c r="D63" s="61" t="str">
@@ -15186,7 +15142,7 @@
       <c r="J63" s="106"/>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A64" s="111"/>
+      <c r="A64" s="112"/>
       <c r="B64" s="64"/>
       <c r="C64" s="65"/>
       <c r="D64" s="61" t="str">
@@ -15212,7 +15168,7 @@
       <c r="J64" s="106"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="111"/>
+      <c r="A65" s="112"/>
       <c r="B65" s="64"/>
       <c r="C65" s="65"/>
       <c r="D65" s="61" t="str">
@@ -15238,7 +15194,7 @@
       <c r="J65" s="106"/>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="111"/>
+      <c r="A66" s="112"/>
       <c r="B66" s="64"/>
       <c r="C66" s="65"/>
       <c r="D66" s="61" t="str">
@@ -15264,7 +15220,7 @@
       <c r="J66" s="106"/>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="111"/>
+      <c r="A67" s="112"/>
       <c r="B67" s="64"/>
       <c r="C67" s="65"/>
       <c r="D67" s="61" t="str">
@@ -15290,7 +15246,7 @@
       <c r="J67" s="106"/>
     </row>
     <row r="68" spans="1:19" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="111"/>
+      <c r="A68" s="112"/>
       <c r="B68" s="64"/>
       <c r="C68" s="65"/>
       <c r="D68" s="61" t="str">
@@ -15316,7 +15272,7 @@
       <c r="J68" s="106"/>
     </row>
     <row r="69" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="111"/>
+      <c r="A69" s="112"/>
       <c r="B69" s="64"/>
       <c r="C69" s="65"/>
       <c r="D69" s="61" t="str">
@@ -15330,7 +15286,7 @@
       <c r="I69" s="50"/>
     </row>
     <row r="70" spans="1:19" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="111"/>
+      <c r="A70" s="112"/>
       <c r="B70" s="64"/>
       <c r="C70" s="65"/>
       <c r="D70" s="61" t="str">
@@ -15344,7 +15300,7 @@
       <c r="I70" s="50"/>
     </row>
     <row r="71" spans="1:19" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="111"/>
+      <c r="A71" s="112"/>
       <c r="B71" s="64"/>
       <c r="C71" s="65"/>
       <c r="D71" s="61" t="str">
@@ -15363,47 +15319,47 @@
       </c>
     </row>
     <row r="72" spans="1:19" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="111"/>
+      <c r="A72" s="112"/>
       <c r="B72" s="64"/>
       <c r="C72" s="65"/>
       <c r="D72" s="61" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="E72" s="113" t="str">
+      <c r="E72" s="109" t="str">
         <f>IF(F68&lt;&gt;"","# Uren afgetikt aan het eind van de sprint:","")</f>
         <v/>
       </c>
-      <c r="F72" s="114"/>
-      <c r="G72" s="114"/>
-      <c r="H72" s="114"/>
+      <c r="F72" s="110"/>
+      <c r="G72" s="110"/>
+      <c r="H72" s="110"/>
       <c r="I72" s="12" t="str">
         <f>IF(F68&lt;&gt;"",SUM(F58:F68),"")</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:19" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="111"/>
+      <c r="A73" s="112"/>
       <c r="B73" s="64"/>
       <c r="C73" s="65"/>
       <c r="D73" s="61" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="E73" s="115" t="str">
+      <c r="E73" s="114" t="str">
         <f>IF(F68&lt;&gt;"","Dit moesten er zijn:","")</f>
         <v/>
       </c>
-      <c r="F73" s="116"/>
-      <c r="G73" s="116"/>
-      <c r="H73" s="116"/>
+      <c r="F73" s="115"/>
+      <c r="G73" s="115"/>
+      <c r="H73" s="115"/>
       <c r="I73" s="16" t="str">
         <f>IF(F68&lt;&gt;"",AB60,"")</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="111"/>
+      <c r="A74" s="112"/>
       <c r="B74" s="64"/>
       <c r="C74" s="65"/>
       <c r="D74" s="61" t="str">
@@ -15420,7 +15376,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="111"/>
+      <c r="A75" s="112"/>
       <c r="B75" s="64"/>
       <c r="C75" s="65"/>
       <c r="D75" s="61" t="str">
@@ -15434,7 +15390,7 @@
       <c r="I75" s="50"/>
     </row>
     <row r="76" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="111"/>
+      <c r="A76" s="112"/>
       <c r="B76" s="64"/>
       <c r="C76" s="65"/>
       <c r="D76" s="61" t="str">
@@ -15448,7 +15404,7 @@
       <c r="I76" s="50"/>
     </row>
     <row r="77" spans="1:19" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="111"/>
+      <c r="A77" s="112"/>
       <c r="B77" s="64"/>
       <c r="C77" s="65"/>
       <c r="D77" s="61" t="str">
@@ -15462,7 +15418,7 @@
       <c r="I77" s="50"/>
     </row>
     <row r="78" spans="1:19" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="112"/>
+      <c r="A78" s="113"/>
       <c r="B78" s="66"/>
       <c r="C78" s="67"/>
       <c r="D78" s="62" t="str">
@@ -15482,20 +15438,20 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="43"/>
-      <c r="B79" s="107" t="str">
+      <c r="B79" s="117" t="str">
         <f>B1</f>
-        <v>Testkees</v>
-      </c>
-      <c r="C79" s="107"/>
-      <c r="D79" s="107"/>
-      <c r="E79" s="107"/>
-      <c r="F79" s="107"/>
-      <c r="G79" s="107"/>
-      <c r="H79" s="107"/>
-      <c r="I79" s="107"/>
-      <c r="J79" s="107"/>
-      <c r="K79" s="107"/>
-      <c r="L79" s="107"/>
+        <v>Max</v>
+      </c>
+      <c r="C79" s="117"/>
+      <c r="D79" s="117"/>
+      <c r="E79" s="117"/>
+      <c r="F79" s="117"/>
+      <c r="G79" s="117"/>
+      <c r="H79" s="117"/>
+      <c r="I79" s="117"/>
+      <c r="J79" s="117"/>
+      <c r="K79" s="117"/>
+      <c r="L79" s="117"/>
       <c r="M79" s="44"/>
       <c r="N79" s="44"/>
       <c r="O79" s="44"/>
@@ -15506,17 +15462,17 @@
     </row>
     <row r="80" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="43"/>
-      <c r="B80" s="107"/>
-      <c r="C80" s="107"/>
-      <c r="D80" s="107"/>
-      <c r="E80" s="107"/>
-      <c r="F80" s="107"/>
-      <c r="G80" s="107"/>
-      <c r="H80" s="107"/>
-      <c r="I80" s="107"/>
-      <c r="J80" s="107"/>
-      <c r="K80" s="107"/>
-      <c r="L80" s="107"/>
+      <c r="B80" s="117"/>
+      <c r="C80" s="117"/>
+      <c r="D80" s="117"/>
+      <c r="E80" s="117"/>
+      <c r="F80" s="117"/>
+      <c r="G80" s="117"/>
+      <c r="H80" s="117"/>
+      <c r="I80" s="117"/>
+      <c r="J80" s="117"/>
+      <c r="K80" s="117"/>
+      <c r="L80" s="117"/>
       <c r="M80" s="44"/>
       <c r="N80" s="44"/>
       <c r="O80" s="44"/>
@@ -15532,10 +15488,10 @@
       <c r="D81" s="44"/>
       <c r="E81" s="44"/>
       <c r="F81" s="44"/>
-      <c r="G81" s="108" t="s">
+      <c r="G81" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="H81" s="109"/>
+      <c r="H81" s="108"/>
       <c r="I81" s="45"/>
       <c r="J81" s="44"/>
       <c r="K81" s="44"/>
@@ -15605,7 +15561,7 @@
       <c r="S83" s="44"/>
     </row>
     <row r="84" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="110" t="s">
+      <c r="A84" s="111" t="s">
         <v>25</v>
       </c>
       <c r="B84" s="33"/>
@@ -15634,7 +15590,7 @@
       </c>
     </row>
     <row r="85" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="111"/>
+      <c r="A85" s="112"/>
       <c r="B85" s="34"/>
       <c r="C85" s="69"/>
       <c r="D85" s="98"/>
@@ -15656,7 +15612,7 @@
       </c>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A86" s="111"/>
+      <c r="A86" s="112"/>
       <c r="B86" s="64"/>
       <c r="C86" s="65"/>
       <c r="D86" s="61" t="str">
@@ -15688,7 +15644,7 @@
       </c>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A87" s="111"/>
+      <c r="A87" s="112"/>
       <c r="B87" s="64"/>
       <c r="C87" s="65"/>
       <c r="D87" s="61" t="str">
@@ -15713,7 +15669,7 @@
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A88" s="111"/>
+      <c r="A88" s="112"/>
       <c r="B88" s="64"/>
       <c r="C88" s="65"/>
       <c r="D88" s="61" t="str">
@@ -15738,7 +15694,7 @@
       </c>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A89" s="111"/>
+      <c r="A89" s="112"/>
       <c r="B89" s="64"/>
       <c r="C89" s="65"/>
       <c r="D89" s="61" t="str">
@@ -15763,7 +15719,7 @@
       </c>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A90" s="111"/>
+      <c r="A90" s="112"/>
       <c r="B90" s="64"/>
       <c r="C90" s="65"/>
       <c r="D90" s="61" t="str">
@@ -15788,7 +15744,7 @@
       </c>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A91" s="111"/>
+      <c r="A91" s="112"/>
       <c r="B91" s="64"/>
       <c r="C91" s="65"/>
       <c r="D91" s="61" t="str">
@@ -15813,7 +15769,7 @@
       </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A92" s="111"/>
+      <c r="A92" s="112"/>
       <c r="B92" s="64"/>
       <c r="C92" s="65"/>
       <c r="D92" s="61" t="str">
@@ -15838,7 +15794,7 @@
       </c>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A93" s="111"/>
+      <c r="A93" s="112"/>
       <c r="B93" s="64"/>
       <c r="C93" s="65"/>
       <c r="D93" s="61" t="str">
@@ -15863,7 +15819,7 @@
       </c>
     </row>
     <row r="94" spans="1:28" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="111"/>
+      <c r="A94" s="112"/>
       <c r="B94" s="64"/>
       <c r="C94" s="65"/>
       <c r="D94" s="61" t="str">
@@ -15888,7 +15844,7 @@
       </c>
     </row>
     <row r="95" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="111"/>
+      <c r="A95" s="112"/>
       <c r="B95" s="64"/>
       <c r="C95" s="65"/>
       <c r="D95" s="61" t="str">
@@ -15902,7 +15858,7 @@
       <c r="I95" s="50"/>
     </row>
     <row r="96" spans="1:28" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="111"/>
+      <c r="A96" s="112"/>
       <c r="B96" s="64"/>
       <c r="C96" s="65"/>
       <c r="D96" s="61" t="str">
@@ -15916,7 +15872,7 @@
       <c r="I96" s="50"/>
     </row>
     <row r="97" spans="1:28" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="111"/>
+      <c r="A97" s="112"/>
       <c r="B97" s="64"/>
       <c r="C97" s="65"/>
       <c r="D97" s="61" t="str">
@@ -15935,47 +15891,47 @@
       </c>
     </row>
     <row r="98" spans="1:28" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="111"/>
+      <c r="A98" s="112"/>
       <c r="B98" s="64"/>
       <c r="C98" s="65"/>
       <c r="D98" s="61" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="E98" s="113" t="str">
+      <c r="E98" s="109" t="str">
         <f>IF(F94&lt;&gt;"","# Uren afgetikt aan het eind van de sprint:","")</f>
         <v/>
       </c>
-      <c r="F98" s="114"/>
-      <c r="G98" s="114"/>
-      <c r="H98" s="114"/>
+      <c r="F98" s="110"/>
+      <c r="G98" s="110"/>
+      <c r="H98" s="110"/>
       <c r="I98" s="12" t="str">
         <f>IF(F94&lt;&gt;"",SUM(F84:F94),"")</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="1:28" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="111"/>
+      <c r="A99" s="112"/>
       <c r="B99" s="64"/>
       <c r="C99" s="65"/>
       <c r="D99" s="61" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="E99" s="115" t="str">
+      <c r="E99" s="114" t="str">
         <f>IF(F94&lt;&gt;"","Dit moesten er zijn:","")</f>
         <v/>
       </c>
-      <c r="F99" s="116"/>
-      <c r="G99" s="116"/>
-      <c r="H99" s="116"/>
+      <c r="F99" s="115"/>
+      <c r="G99" s="115"/>
+      <c r="H99" s="115"/>
       <c r="I99" s="16" t="str">
         <f>IF(F94&lt;&gt;"",AB86,"")</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="111"/>
+      <c r="A100" s="112"/>
       <c r="B100" s="64"/>
       <c r="C100" s="65"/>
       <c r="D100" s="61" t="str">
@@ -15992,7 +15948,7 @@
       </c>
     </row>
     <row r="101" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="111"/>
+      <c r="A101" s="112"/>
       <c r="B101" s="64"/>
       <c r="C101" s="65"/>
       <c r="D101" s="61" t="str">
@@ -16006,7 +15962,7 @@
       <c r="I101" s="50"/>
     </row>
     <row r="102" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="111"/>
+      <c r="A102" s="112"/>
       <c r="B102" s="64"/>
       <c r="C102" s="65"/>
       <c r="D102" s="61" t="str">
@@ -16020,7 +15976,7 @@
       <c r="I102" s="50"/>
     </row>
     <row r="103" spans="1:28" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="111"/>
+      <c r="A103" s="112"/>
       <c r="B103" s="64"/>
       <c r="C103" s="65"/>
       <c r="D103" s="61" t="str">
@@ -16034,7 +15990,7 @@
       <c r="I103" s="50"/>
     </row>
     <row r="104" spans="1:28" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="112"/>
+      <c r="A104" s="113"/>
       <c r="B104" s="66"/>
       <c r="C104" s="67"/>
       <c r="D104" s="62" t="str">
@@ -16054,19 +16010,19 @@
     </row>
     <row r="105" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="43"/>
-      <c r="B105" s="107" t="s">
+      <c r="B105" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C105" s="107"/>
-      <c r="D105" s="107"/>
-      <c r="E105" s="107"/>
-      <c r="F105" s="107"/>
-      <c r="G105" s="107"/>
-      <c r="H105" s="107"/>
-      <c r="I105" s="107"/>
-      <c r="J105" s="107"/>
-      <c r="K105" s="107"/>
-      <c r="L105" s="107"/>
+      <c r="C105" s="117"/>
+      <c r="D105" s="117"/>
+      <c r="E105" s="117"/>
+      <c r="F105" s="117"/>
+      <c r="G105" s="117"/>
+      <c r="H105" s="117"/>
+      <c r="I105" s="117"/>
+      <c r="J105" s="117"/>
+      <c r="K105" s="117"/>
+      <c r="L105" s="117"/>
       <c r="M105" s="44"/>
       <c r="N105" s="44"/>
       <c r="O105" s="44"/>
@@ -16077,17 +16033,17 @@
     </row>
     <row r="106" spans="1:28" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="43"/>
-      <c r="B106" s="107"/>
-      <c r="C106" s="107"/>
-      <c r="D106" s="107"/>
-      <c r="E106" s="107"/>
-      <c r="F106" s="107"/>
-      <c r="G106" s="107"/>
-      <c r="H106" s="107"/>
-      <c r="I106" s="107"/>
-      <c r="J106" s="107"/>
-      <c r="K106" s="107"/>
-      <c r="L106" s="107"/>
+      <c r="B106" s="117"/>
+      <c r="C106" s="117"/>
+      <c r="D106" s="117"/>
+      <c r="E106" s="117"/>
+      <c r="F106" s="117"/>
+      <c r="G106" s="117"/>
+      <c r="H106" s="117"/>
+      <c r="I106" s="117"/>
+      <c r="J106" s="117"/>
+      <c r="K106" s="117"/>
+      <c r="L106" s="117"/>
       <c r="M106" s="44"/>
       <c r="N106" s="44"/>
       <c r="O106" s="44"/>
@@ -16103,10 +16059,10 @@
       <c r="D107" s="44"/>
       <c r="E107" s="44"/>
       <c r="F107" s="44"/>
-      <c r="G107" s="108" t="s">
+      <c r="G107" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="H107" s="109"/>
+      <c r="H107" s="108"/>
       <c r="I107" s="45"/>
       <c r="J107" s="44"/>
       <c r="K107" s="44"/>
@@ -16176,7 +16132,7 @@
       <c r="S109" s="44"/>
     </row>
     <row r="110" spans="1:28" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="110" t="s">
+      <c r="A110" s="111" t="s">
         <v>26</v>
       </c>
       <c r="B110" s="56"/>
@@ -16191,7 +16147,7 @@
       <c r="F110" s="31"/>
       <c r="G110" s="17">
         <f>AB111-(AB$8/10)</f>
-        <v>-6.7</v>
+        <v>-4</v>
       </c>
       <c r="H110" s="20">
         <f>AB111-F110</f>
@@ -16199,14 +16155,14 @@
       </c>
       <c r="I110" s="21">
         <f>G110-H110</f>
-        <v>-6.7</v>
+        <v>-4</v>
       </c>
       <c r="AA110" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="111"/>
+      <c r="A111" s="112"/>
       <c r="B111" s="56"/>
       <c r="C111" s="32"/>
       <c r="D111" s="10" t="str">
@@ -16219,7 +16175,7 @@
       <c r="F111" s="32"/>
       <c r="G111" s="18">
         <f>(G110-(AB$8/10))</f>
-        <v>-13.4</v>
+        <v>-8</v>
       </c>
       <c r="H111" s="23">
         <f>H110-F111</f>
@@ -16238,7 +16194,7 @@
       </c>
     </row>
     <row r="112" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="111"/>
+      <c r="A112" s="112"/>
       <c r="B112" s="56"/>
       <c r="C112" s="32"/>
       <c r="D112" s="10" t="str">
@@ -16251,7 +16207,7 @@
       <c r="F112" s="32"/>
       <c r="G112" s="18">
         <f t="shared" ref="G112:G119" si="23">(G111-(AB$8/10))</f>
-        <v>-20.100000000000001</v>
+        <v>-12</v>
       </c>
       <c r="H112" s="29"/>
       <c r="I112" s="22" t="str">
@@ -16260,7 +16216,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="111"/>
+      <c r="A113" s="112"/>
       <c r="B113" s="56"/>
       <c r="C113" s="32"/>
       <c r="D113" s="10" t="str">
@@ -16273,7 +16229,7 @@
       <c r="F113" s="32"/>
       <c r="G113" s="18">
         <f t="shared" si="23"/>
-        <v>-26.8</v>
+        <v>-16</v>
       </c>
       <c r="H113" s="29"/>
       <c r="I113" s="22" t="str">
@@ -16282,7 +16238,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="111"/>
+      <c r="A114" s="112"/>
       <c r="B114" s="56"/>
       <c r="C114" s="32"/>
       <c r="D114" s="10" t="str">
@@ -16295,7 +16251,7 @@
       <c r="F114" s="32"/>
       <c r="G114" s="18">
         <f t="shared" si="23"/>
-        <v>-33.5</v>
+        <v>-20</v>
       </c>
       <c r="H114" s="29"/>
       <c r="I114" s="22" t="str">
@@ -16304,7 +16260,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="111"/>
+      <c r="A115" s="112"/>
       <c r="B115" s="56"/>
       <c r="C115" s="32"/>
       <c r="D115" s="10" t="str">
@@ -16317,7 +16273,7 @@
       <c r="F115" s="32"/>
       <c r="G115" s="18">
         <f t="shared" si="23"/>
-        <v>-40.200000000000003</v>
+        <v>-24</v>
       </c>
       <c r="H115" s="29"/>
       <c r="I115" s="22" t="str">
@@ -16326,7 +16282,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="111"/>
+      <c r="A116" s="112"/>
       <c r="B116" s="56"/>
       <c r="C116" s="32"/>
       <c r="D116" s="10" t="str">
@@ -16339,7 +16295,7 @@
       <c r="F116" s="32"/>
       <c r="G116" s="18">
         <f t="shared" si="23"/>
-        <v>-46.900000000000006</v>
+        <v>-28</v>
       </c>
       <c r="H116" s="29"/>
       <c r="I116" s="22" t="str">
@@ -16348,7 +16304,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="111"/>
+      <c r="A117" s="112"/>
       <c r="B117" s="56"/>
       <c r="C117" s="32"/>
       <c r="D117" s="10" t="str">
@@ -16361,7 +16317,7 @@
       <c r="F117" s="32"/>
       <c r="G117" s="18">
         <f t="shared" si="23"/>
-        <v>-53.600000000000009</v>
+        <v>-32</v>
       </c>
       <c r="H117" s="29"/>
       <c r="I117" s="22" t="str">
@@ -16370,7 +16326,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="111"/>
+      <c r="A118" s="112"/>
       <c r="B118" s="56"/>
       <c r="C118" s="32"/>
       <c r="D118" s="10" t="str">
@@ -16383,7 +16339,7 @@
       <c r="F118" s="32"/>
       <c r="G118" s="18">
         <f t="shared" si="23"/>
-        <v>-60.300000000000011</v>
+        <v>-36</v>
       </c>
       <c r="H118" s="29"/>
       <c r="I118" s="22" t="str">
@@ -16392,7 +16348,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" s="6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="111"/>
+      <c r="A119" s="112"/>
       <c r="B119" s="56"/>
       <c r="C119" s="32"/>
       <c r="D119" s="10" t="str">
@@ -16403,7 +16359,7 @@
       <c r="F119" s="32"/>
       <c r="G119" s="19">
         <f t="shared" si="23"/>
-        <v>-67.000000000000014</v>
+        <v>-40</v>
       </c>
       <c r="H119" s="29"/>
       <c r="I119" s="22" t="str">
@@ -16412,7 +16368,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="111"/>
+      <c r="A120" s="112"/>
       <c r="B120" s="56"/>
       <c r="C120" s="32"/>
       <c r="D120" s="10" t="str">
@@ -16426,7 +16382,7 @@
       <c r="I120" s="49"/>
     </row>
     <row r="121" spans="1:9" s="6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="111"/>
+      <c r="A121" s="112"/>
       <c r="B121" s="56"/>
       <c r="C121" s="32"/>
       <c r="D121" s="10" t="str">
@@ -16440,7 +16396,7 @@
       <c r="I121" s="50"/>
     </row>
     <row r="122" spans="1:9" s="6" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="111"/>
+      <c r="A122" s="112"/>
       <c r="B122" s="56"/>
       <c r="C122" s="32"/>
       <c r="D122" s="10" t="str">
@@ -16459,47 +16415,47 @@
       </c>
     </row>
     <row r="123" spans="1:9" s="6" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="111"/>
+      <c r="A123" s="112"/>
       <c r="B123" s="56"/>
       <c r="C123" s="32"/>
       <c r="D123" s="10" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="E123" s="113" t="str">
+      <c r="E123" s="109" t="str">
         <f>IF(F119&lt;&gt;"","# Points afgetikt aan het eind van de sprint:","")</f>
         <v/>
       </c>
-      <c r="F123" s="114"/>
-      <c r="G123" s="114"/>
-      <c r="H123" s="114"/>
+      <c r="F123" s="110"/>
+      <c r="G123" s="110"/>
+      <c r="H123" s="110"/>
       <c r="I123" s="12" t="str">
         <f>IF(F119&lt;&gt;"",SUM(F110:F119),"")</f>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:9" s="6" customFormat="1" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="111"/>
+      <c r="A124" s="112"/>
       <c r="B124" s="56"/>
       <c r="C124" s="32"/>
       <c r="D124" s="10" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="E124" s="115" t="str">
+      <c r="E124" s="114" t="str">
         <f>IF(F119&lt;&gt;"","Dit moesten er zijn:","")</f>
         <v/>
       </c>
-      <c r="F124" s="116"/>
-      <c r="G124" s="116"/>
-      <c r="H124" s="116"/>
+      <c r="F124" s="115"/>
+      <c r="G124" s="115"/>
+      <c r="H124" s="115"/>
       <c r="I124" s="16" t="str">
         <f>IF(F119&lt;&gt;"",AB111,"")</f>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:9" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="111"/>
+      <c r="A125" s="112"/>
       <c r="B125" s="34"/>
       <c r="C125" s="58"/>
       <c r="D125" s="10" t="str">
@@ -16516,7 +16472,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="111"/>
+      <c r="A126" s="112"/>
       <c r="B126" s="34"/>
       <c r="C126" s="32"/>
       <c r="D126" s="10" t="str">
@@ -16530,7 +16486,7 @@
       <c r="I126" s="50"/>
     </row>
     <row r="127" spans="1:9" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="111"/>
+      <c r="A127" s="112"/>
       <c r="B127" s="34"/>
       <c r="C127" s="32"/>
       <c r="D127" s="10" t="str">
@@ -16544,7 +16500,7 @@
       <c r="I127" s="50"/>
     </row>
     <row r="128" spans="1:9" s="6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="111"/>
+      <c r="A128" s="112"/>
       <c r="B128" s="34"/>
       <c r="C128" s="32"/>
       <c r="D128" s="10" t="str">
@@ -16558,7 +16514,7 @@
       <c r="I128" s="50"/>
     </row>
     <row r="129" spans="1:28" s="2" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="112"/>
+      <c r="A129" s="113"/>
       <c r="B129" s="34"/>
       <c r="C129" s="32"/>
       <c r="D129" s="11" t="str">
@@ -16578,19 +16534,19 @@
     </row>
     <row r="130" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="43"/>
-      <c r="B130" s="107" t="s">
+      <c r="B130" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C130" s="107"/>
-      <c r="D130" s="107"/>
-      <c r="E130" s="107"/>
-      <c r="F130" s="107"/>
-      <c r="G130" s="107"/>
-      <c r="H130" s="107"/>
-      <c r="I130" s="107"/>
-      <c r="J130" s="107"/>
-      <c r="K130" s="107"/>
-      <c r="L130" s="107"/>
+      <c r="C130" s="117"/>
+      <c r="D130" s="117"/>
+      <c r="E130" s="117"/>
+      <c r="F130" s="117"/>
+      <c r="G130" s="117"/>
+      <c r="H130" s="117"/>
+      <c r="I130" s="117"/>
+      <c r="J130" s="117"/>
+      <c r="K130" s="117"/>
+      <c r="L130" s="117"/>
       <c r="M130" s="44"/>
       <c r="N130" s="44"/>
       <c r="O130" s="44"/>
@@ -16601,17 +16557,17 @@
     </row>
     <row r="131" spans="1:28" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="43"/>
-      <c r="B131" s="107"/>
-      <c r="C131" s="107"/>
-      <c r="D131" s="107"/>
-      <c r="E131" s="107"/>
-      <c r="F131" s="107"/>
-      <c r="G131" s="107"/>
-      <c r="H131" s="107"/>
-      <c r="I131" s="107"/>
-      <c r="J131" s="107"/>
-      <c r="K131" s="107"/>
-      <c r="L131" s="107"/>
+      <c r="B131" s="117"/>
+      <c r="C131" s="117"/>
+      <c r="D131" s="117"/>
+      <c r="E131" s="117"/>
+      <c r="F131" s="117"/>
+      <c r="G131" s="117"/>
+      <c r="H131" s="117"/>
+      <c r="I131" s="117"/>
+      <c r="J131" s="117"/>
+      <c r="K131" s="117"/>
+      <c r="L131" s="117"/>
       <c r="M131" s="44"/>
       <c r="N131" s="44"/>
       <c r="O131" s="44"/>
@@ -16627,10 +16583,10 @@
       <c r="D132" s="44"/>
       <c r="E132" s="44"/>
       <c r="F132" s="44"/>
-      <c r="G132" s="108" t="s">
+      <c r="G132" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="H132" s="109"/>
+      <c r="H132" s="108"/>
       <c r="I132" s="45"/>
       <c r="J132" s="44"/>
       <c r="K132" s="44"/>
@@ -16700,7 +16656,7 @@
       <c r="S134" s="44"/>
     </row>
     <row r="135" spans="1:28" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="110" t="s">
+      <c r="A135" s="111" t="s">
         <v>27</v>
       </c>
       <c r="B135" s="57"/>
@@ -16715,7 +16671,7 @@
       <c r="F135" s="31"/>
       <c r="G135" s="17">
         <f>AB136-(AB$8/10)</f>
-        <v>-6.7</v>
+        <v>-4</v>
       </c>
       <c r="H135" s="20">
         <f>AB136-F135</f>
@@ -16723,14 +16679,14 @@
       </c>
       <c r="I135" s="21">
         <f>G135-H135</f>
-        <v>-6.7</v>
+        <v>-4</v>
       </c>
       <c r="AA135" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="111"/>
+      <c r="A136" s="112"/>
       <c r="B136" s="56"/>
       <c r="C136" s="32"/>
       <c r="D136" s="10" t="str">
@@ -16743,7 +16699,7 @@
       <c r="F136" s="32"/>
       <c r="G136" s="18">
         <f>(G135-(AB$8/10))</f>
-        <v>-13.4</v>
+        <v>-8</v>
       </c>
       <c r="H136" s="23">
         <f>H135-F136</f>
@@ -16762,7 +16718,7 @@
       </c>
     </row>
     <row r="137" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="111"/>
+      <c r="A137" s="112"/>
       <c r="B137" s="56"/>
       <c r="C137" s="32"/>
       <c r="D137" s="10" t="str">
@@ -16775,7 +16731,7 @@
       <c r="F137" s="32"/>
       <c r="G137" s="18">
         <f t="shared" ref="G137:G144" si="27">(G136-(AB$8/10))</f>
-        <v>-20.100000000000001</v>
+        <v>-12</v>
       </c>
       <c r="H137" s="29"/>
       <c r="I137" s="22" t="str">
@@ -16784,7 +16740,7 @@
       </c>
     </row>
     <row r="138" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="111"/>
+      <c r="A138" s="112"/>
       <c r="B138" s="56"/>
       <c r="C138" s="32"/>
       <c r="D138" s="10" t="str">
@@ -16797,7 +16753,7 @@
       <c r="F138" s="32"/>
       <c r="G138" s="18">
         <f t="shared" si="27"/>
-        <v>-26.8</v>
+        <v>-16</v>
       </c>
       <c r="H138" s="29"/>
       <c r="I138" s="22" t="str">
@@ -16806,7 +16762,7 @@
       </c>
     </row>
     <row r="139" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="111"/>
+      <c r="A139" s="112"/>
       <c r="B139" s="56"/>
       <c r="C139" s="32"/>
       <c r="D139" s="10" t="str">
@@ -16819,7 +16775,7 @@
       <c r="F139" s="32"/>
       <c r="G139" s="18">
         <f t="shared" si="27"/>
-        <v>-33.5</v>
+        <v>-20</v>
       </c>
       <c r="H139" s="29"/>
       <c r="I139" s="22" t="str">
@@ -16828,7 +16784,7 @@
       </c>
     </row>
     <row r="140" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="111"/>
+      <c r="A140" s="112"/>
       <c r="B140" s="56"/>
       <c r="C140" s="32"/>
       <c r="D140" s="10" t="str">
@@ -16841,7 +16797,7 @@
       <c r="F140" s="32"/>
       <c r="G140" s="18">
         <f t="shared" si="27"/>
-        <v>-40.200000000000003</v>
+        <v>-24</v>
       </c>
       <c r="H140" s="29"/>
       <c r="I140" s="22" t="str">
@@ -16850,7 +16806,7 @@
       </c>
     </row>
     <row r="141" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="111"/>
+      <c r="A141" s="112"/>
       <c r="B141" s="56"/>
       <c r="C141" s="32"/>
       <c r="D141" s="10" t="str">
@@ -16863,7 +16819,7 @@
       <c r="F141" s="32"/>
       <c r="G141" s="18">
         <f t="shared" si="27"/>
-        <v>-46.900000000000006</v>
+        <v>-28</v>
       </c>
       <c r="H141" s="29"/>
       <c r="I141" s="22" t="str">
@@ -16872,7 +16828,7 @@
       </c>
     </row>
     <row r="142" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="111"/>
+      <c r="A142" s="112"/>
       <c r="B142" s="56"/>
       <c r="C142" s="32"/>
       <c r="D142" s="10" t="str">
@@ -16885,7 +16841,7 @@
       <c r="F142" s="32"/>
       <c r="G142" s="18">
         <f t="shared" si="27"/>
-        <v>-53.600000000000009</v>
+        <v>-32</v>
       </c>
       <c r="H142" s="29"/>
       <c r="I142" s="22" t="str">
@@ -16894,7 +16850,7 @@
       </c>
     </row>
     <row r="143" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="111"/>
+      <c r="A143" s="112"/>
       <c r="B143" s="56"/>
       <c r="C143" s="32"/>
       <c r="D143" s="10" t="str">
@@ -16907,7 +16863,7 @@
       <c r="F143" s="32"/>
       <c r="G143" s="18">
         <f t="shared" si="27"/>
-        <v>-60.300000000000011</v>
+        <v>-36</v>
       </c>
       <c r="H143" s="29"/>
       <c r="I143" s="22" t="str">
@@ -16916,7 +16872,7 @@
       </c>
     </row>
     <row r="144" spans="1:28" s="6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="111"/>
+      <c r="A144" s="112"/>
       <c r="B144" s="56"/>
       <c r="C144" s="32"/>
       <c r="D144" s="10" t="str">
@@ -16927,7 +16883,7 @@
       <c r="F144" s="32"/>
       <c r="G144" s="19">
         <f t="shared" si="27"/>
-        <v>-67.000000000000014</v>
+        <v>-40</v>
       </c>
       <c r="H144" s="29"/>
       <c r="I144" s="22" t="str">
@@ -16936,7 +16892,7 @@
       </c>
     </row>
     <row r="145" spans="1:27" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="111"/>
+      <c r="A145" s="112"/>
       <c r="B145" s="56"/>
       <c r="C145" s="32"/>
       <c r="D145" s="10" t="str">
@@ -16950,7 +16906,7 @@
       <c r="I145" s="49"/>
     </row>
     <row r="146" spans="1:27" s="6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="111"/>
+      <c r="A146" s="112"/>
       <c r="B146" s="56"/>
       <c r="C146" s="32"/>
       <c r="D146" s="10" t="str">
@@ -16964,7 +16920,7 @@
       <c r="I146" s="50"/>
     </row>
     <row r="147" spans="1:27" s="6" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="111"/>
+      <c r="A147" s="112"/>
       <c r="B147" s="56"/>
       <c r="C147" s="32"/>
       <c r="D147" s="10" t="str">
@@ -16983,47 +16939,47 @@
       </c>
     </row>
     <row r="148" spans="1:27" s="6" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="111"/>
+      <c r="A148" s="112"/>
       <c r="B148" s="56"/>
       <c r="C148" s="32"/>
       <c r="D148" s="10" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="E148" s="113" t="str">
+      <c r="E148" s="109" t="str">
         <f>IF(F144&lt;&gt;"","# Points afgetikt aan het eind van de sprint:","")</f>
         <v/>
       </c>
-      <c r="F148" s="114"/>
-      <c r="G148" s="114"/>
-      <c r="H148" s="114"/>
+      <c r="F148" s="110"/>
+      <c r="G148" s="110"/>
+      <c r="H148" s="110"/>
       <c r="I148" s="12" t="str">
         <f>IF(F144&lt;&gt;"",SUM(F135:F144),"")</f>
         <v/>
       </c>
     </row>
     <row r="149" spans="1:27" s="6" customFormat="1" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="111"/>
+      <c r="A149" s="112"/>
       <c r="B149" s="56"/>
       <c r="C149" s="32"/>
       <c r="D149" s="10" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="E149" s="115" t="str">
+      <c r="E149" s="114" t="str">
         <f>IF(F144&lt;&gt;"","Dit moesten er zijn:","")</f>
         <v/>
       </c>
-      <c r="F149" s="116"/>
-      <c r="G149" s="116"/>
-      <c r="H149" s="116"/>
+      <c r="F149" s="115"/>
+      <c r="G149" s="115"/>
+      <c r="H149" s="115"/>
       <c r="I149" s="16" t="str">
         <f>IF(F144&lt;&gt;"",AB136,"")</f>
         <v/>
       </c>
     </row>
     <row r="150" spans="1:27" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="111"/>
+      <c r="A150" s="112"/>
       <c r="B150" s="56"/>
       <c r="C150" s="32"/>
       <c r="D150" s="10" t="str">
@@ -17040,7 +16996,7 @@
       </c>
     </row>
     <row r="151" spans="1:27" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="111"/>
+      <c r="A151" s="112"/>
       <c r="B151" s="34"/>
       <c r="C151" s="32"/>
       <c r="D151" s="10" t="str">
@@ -17054,7 +17010,7 @@
       <c r="I151" s="50"/>
     </row>
     <row r="152" spans="1:27" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="111"/>
+      <c r="A152" s="112"/>
       <c r="B152" s="34"/>
       <c r="C152" s="32"/>
       <c r="D152" s="10" t="str">
@@ -17068,7 +17024,7 @@
       <c r="I152" s="50"/>
     </row>
     <row r="153" spans="1:27" s="6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="111"/>
+      <c r="A153" s="112"/>
       <c r="B153" s="34"/>
       <c r="C153" s="32"/>
       <c r="D153" s="10" t="str">
@@ -17082,7 +17038,7 @@
       <c r="I153" s="50"/>
     </row>
     <row r="154" spans="1:27" s="2" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="112"/>
+      <c r="A154" s="113"/>
       <c r="B154" s="34"/>
       <c r="C154" s="32"/>
       <c r="D154" s="11" t="str">
@@ -17102,19 +17058,19 @@
     </row>
     <row r="155" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="43"/>
-      <c r="B155" s="107" t="s">
+      <c r="B155" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C155" s="107"/>
-      <c r="D155" s="107"/>
-      <c r="E155" s="107"/>
-      <c r="F155" s="107"/>
-      <c r="G155" s="107"/>
-      <c r="H155" s="107"/>
-      <c r="I155" s="107"/>
-      <c r="J155" s="107"/>
-      <c r="K155" s="107"/>
-      <c r="L155" s="107"/>
+      <c r="C155" s="117"/>
+      <c r="D155" s="117"/>
+      <c r="E155" s="117"/>
+      <c r="F155" s="117"/>
+      <c r="G155" s="117"/>
+      <c r="H155" s="117"/>
+      <c r="I155" s="117"/>
+      <c r="J155" s="117"/>
+      <c r="K155" s="117"/>
+      <c r="L155" s="117"/>
       <c r="M155" s="44"/>
       <c r="N155" s="44"/>
       <c r="O155" s="44"/>
@@ -17125,17 +17081,17 @@
     </row>
     <row r="156" spans="1:27" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="43"/>
-      <c r="B156" s="107"/>
-      <c r="C156" s="107"/>
-      <c r="D156" s="107"/>
-      <c r="E156" s="107"/>
-      <c r="F156" s="107"/>
-      <c r="G156" s="107"/>
-      <c r="H156" s="107"/>
-      <c r="I156" s="107"/>
-      <c r="J156" s="107"/>
-      <c r="K156" s="107"/>
-      <c r="L156" s="107"/>
+      <c r="B156" s="117"/>
+      <c r="C156" s="117"/>
+      <c r="D156" s="117"/>
+      <c r="E156" s="117"/>
+      <c r="F156" s="117"/>
+      <c r="G156" s="117"/>
+      <c r="H156" s="117"/>
+      <c r="I156" s="117"/>
+      <c r="J156" s="117"/>
+      <c r="K156" s="117"/>
+      <c r="L156" s="117"/>
       <c r="M156" s="44"/>
       <c r="N156" s="44"/>
       <c r="O156" s="44"/>
@@ -17151,10 +17107,10 @@
       <c r="D157" s="44"/>
       <c r="E157" s="44"/>
       <c r="F157" s="44"/>
-      <c r="G157" s="108" t="s">
+      <c r="G157" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="H157" s="109"/>
+      <c r="H157" s="108"/>
       <c r="I157" s="45"/>
       <c r="J157" s="44"/>
       <c r="K157" s="44"/>
@@ -17224,7 +17180,7 @@
       <c r="S159" s="44"/>
     </row>
     <row r="160" spans="1:27" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="110" t="s">
+      <c r="A160" s="111" t="s">
         <v>28</v>
       </c>
       <c r="B160" s="56"/>
@@ -17239,7 +17195,7 @@
       <c r="F160" s="31"/>
       <c r="G160" s="17">
         <f>AB161-(AB$8/10)</f>
-        <v>-6.7</v>
+        <v>-4</v>
       </c>
       <c r="H160" s="20">
         <f>AB161-F160</f>
@@ -17247,14 +17203,14 @@
       </c>
       <c r="I160" s="21">
         <f>G160-H160</f>
-        <v>-6.7</v>
+        <v>-4</v>
       </c>
       <c r="AA160" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="111"/>
+      <c r="A161" s="112"/>
       <c r="B161" s="56"/>
       <c r="C161" s="32"/>
       <c r="D161" s="10" t="str">
@@ -17267,7 +17223,7 @@
       <c r="F161" s="32"/>
       <c r="G161" s="18">
         <f>(G160-(AB$8/10))</f>
-        <v>-13.4</v>
+        <v>-8</v>
       </c>
       <c r="H161" s="23">
         <f>H160-F161</f>
@@ -17286,7 +17242,7 @@
       </c>
     </row>
     <row r="162" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="111"/>
+      <c r="A162" s="112"/>
       <c r="B162" s="56"/>
       <c r="C162" s="32"/>
       <c r="D162" s="10" t="str">
@@ -17299,7 +17255,7 @@
       <c r="F162" s="32"/>
       <c r="G162" s="18">
         <f t="shared" ref="G162:G169" si="31">(G161-(AB$8/10))</f>
-        <v>-20.100000000000001</v>
+        <v>-12</v>
       </c>
       <c r="H162" s="29"/>
       <c r="I162" s="22" t="str">
@@ -17308,7 +17264,7 @@
       </c>
     </row>
     <row r="163" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="111"/>
+      <c r="A163" s="112"/>
       <c r="B163" s="56"/>
       <c r="C163" s="32"/>
       <c r="D163" s="10" t="str">
@@ -17321,7 +17277,7 @@
       <c r="F163" s="32"/>
       <c r="G163" s="18">
         <f t="shared" si="31"/>
-        <v>-26.8</v>
+        <v>-16</v>
       </c>
       <c r="H163" s="29"/>
       <c r="I163" s="22" t="str">
@@ -17330,7 +17286,7 @@
       </c>
     </row>
     <row r="164" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="111"/>
+      <c r="A164" s="112"/>
       <c r="B164" s="56"/>
       <c r="C164" s="32"/>
       <c r="D164" s="10" t="str">
@@ -17343,7 +17299,7 @@
       <c r="F164" s="32"/>
       <c r="G164" s="18">
         <f t="shared" si="31"/>
-        <v>-33.5</v>
+        <v>-20</v>
       </c>
       <c r="H164" s="29"/>
       <c r="I164" s="22" t="str">
@@ -17352,7 +17308,7 @@
       </c>
     </row>
     <row r="165" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="111"/>
+      <c r="A165" s="112"/>
       <c r="B165" s="56"/>
       <c r="C165" s="32"/>
       <c r="D165" s="10" t="str">
@@ -17365,7 +17321,7 @@
       <c r="F165" s="32"/>
       <c r="G165" s="18">
         <f t="shared" si="31"/>
-        <v>-40.200000000000003</v>
+        <v>-24</v>
       </c>
       <c r="H165" s="29"/>
       <c r="I165" s="22" t="str">
@@ -17374,7 +17330,7 @@
       </c>
     </row>
     <row r="166" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="111"/>
+      <c r="A166" s="112"/>
       <c r="B166" s="56"/>
       <c r="C166" s="32"/>
       <c r="D166" s="10" t="str">
@@ -17387,7 +17343,7 @@
       <c r="F166" s="32"/>
       <c r="G166" s="18">
         <f t="shared" si="31"/>
-        <v>-46.900000000000006</v>
+        <v>-28</v>
       </c>
       <c r="H166" s="29"/>
       <c r="I166" s="22" t="str">
@@ -17396,7 +17352,7 @@
       </c>
     </row>
     <row r="167" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="111"/>
+      <c r="A167" s="112"/>
       <c r="B167" s="56"/>
       <c r="C167" s="32"/>
       <c r="D167" s="10" t="str">
@@ -17409,7 +17365,7 @@
       <c r="F167" s="32"/>
       <c r="G167" s="18">
         <f t="shared" si="31"/>
-        <v>-53.600000000000009</v>
+        <v>-32</v>
       </c>
       <c r="H167" s="29"/>
       <c r="I167" s="22" t="str">
@@ -17418,7 +17374,7 @@
       </c>
     </row>
     <row r="168" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="111"/>
+      <c r="A168" s="112"/>
       <c r="B168" s="56"/>
       <c r="C168" s="32"/>
       <c r="D168" s="10" t="str">
@@ -17431,7 +17387,7 @@
       <c r="F168" s="32"/>
       <c r="G168" s="18">
         <f t="shared" si="31"/>
-        <v>-60.300000000000011</v>
+        <v>-36</v>
       </c>
       <c r="H168" s="29"/>
       <c r="I168" s="22" t="str">
@@ -17440,7 +17396,7 @@
       </c>
     </row>
     <row r="169" spans="1:28" s="6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="111"/>
+      <c r="A169" s="112"/>
       <c r="B169" s="56"/>
       <c r="C169" s="32"/>
       <c r="D169" s="10" t="str">
@@ -17451,7 +17407,7 @@
       <c r="F169" s="32"/>
       <c r="G169" s="19">
         <f t="shared" si="31"/>
-        <v>-67.000000000000014</v>
+        <v>-40</v>
       </c>
       <c r="H169" s="29"/>
       <c r="I169" s="22" t="str">
@@ -17460,7 +17416,7 @@
       </c>
     </row>
     <row r="170" spans="1:28" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="111"/>
+      <c r="A170" s="112"/>
       <c r="B170" s="56"/>
       <c r="C170" s="32"/>
       <c r="D170" s="10" t="str">
@@ -17474,7 +17430,7 @@
       <c r="I170" s="49"/>
     </row>
     <row r="171" spans="1:28" s="6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="111"/>
+      <c r="A171" s="112"/>
       <c r="B171" s="56"/>
       <c r="C171" s="32"/>
       <c r="D171" s="10" t="str">
@@ -17488,7 +17444,7 @@
       <c r="I171" s="50"/>
     </row>
     <row r="172" spans="1:28" s="6" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="111"/>
+      <c r="A172" s="112"/>
       <c r="B172" s="56"/>
       <c r="C172" s="32"/>
       <c r="D172" s="10" t="str">
@@ -17507,47 +17463,47 @@
       </c>
     </row>
     <row r="173" spans="1:28" s="6" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="111"/>
+      <c r="A173" s="112"/>
       <c r="B173" s="56"/>
       <c r="C173" s="32"/>
       <c r="D173" s="10" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="E173" s="113" t="str">
+      <c r="E173" s="109" t="str">
         <f>IF(F169&lt;&gt;"","# Points afgetikt aan het eind van de sprint:","")</f>
         <v/>
       </c>
-      <c r="F173" s="114"/>
-      <c r="G173" s="114"/>
-      <c r="H173" s="114"/>
+      <c r="F173" s="110"/>
+      <c r="G173" s="110"/>
+      <c r="H173" s="110"/>
       <c r="I173" s="12" t="str">
         <f>IF(F169&lt;&gt;"",SUM(F160:F169),"")</f>
         <v/>
       </c>
     </row>
     <row r="174" spans="1:28" s="6" customFormat="1" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="111"/>
+      <c r="A174" s="112"/>
       <c r="B174" s="56"/>
       <c r="C174" s="32"/>
       <c r="D174" s="10" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="E174" s="115" t="str">
+      <c r="E174" s="114" t="str">
         <f>IF(F169&lt;&gt;"","Dit moesten er zijn:","")</f>
         <v/>
       </c>
-      <c r="F174" s="116"/>
-      <c r="G174" s="116"/>
-      <c r="H174" s="116"/>
+      <c r="F174" s="115"/>
+      <c r="G174" s="115"/>
+      <c r="H174" s="115"/>
       <c r="I174" s="16" t="str">
         <f>IF(F169&lt;&gt;"",AB161,"")</f>
         <v/>
       </c>
     </row>
     <row r="175" spans="1:28" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="111"/>
+      <c r="A175" s="112"/>
       <c r="B175" s="34"/>
       <c r="C175" s="58"/>
       <c r="D175" s="10" t="str">
@@ -17564,7 +17520,7 @@
       </c>
     </row>
     <row r="176" spans="1:28" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="111"/>
+      <c r="A176" s="112"/>
       <c r="B176" s="34"/>
       <c r="C176" s="32"/>
       <c r="D176" s="10" t="str">
@@ -17578,7 +17534,7 @@
       <c r="I176" s="50"/>
     </row>
     <row r="177" spans="1:28" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="111"/>
+      <c r="A177" s="112"/>
       <c r="B177" s="34"/>
       <c r="C177" s="32"/>
       <c r="D177" s="10" t="str">
@@ -17592,7 +17548,7 @@
       <c r="I177" s="50"/>
     </row>
     <row r="178" spans="1:28" s="6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="111"/>
+      <c r="A178" s="112"/>
       <c r="B178" s="34"/>
       <c r="C178" s="32"/>
       <c r="D178" s="10" t="str">
@@ -17606,7 +17562,7 @@
       <c r="I178" s="50"/>
     </row>
     <row r="179" spans="1:28" s="2" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="112"/>
+      <c r="A179" s="113"/>
       <c r="B179" s="34"/>
       <c r="C179" s="32"/>
       <c r="D179" s="11" t="str">
@@ -17626,19 +17582,19 @@
     </row>
     <row r="180" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="43"/>
-      <c r="B180" s="107" t="s">
+      <c r="B180" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C180" s="107"/>
-      <c r="D180" s="107"/>
-      <c r="E180" s="107"/>
-      <c r="F180" s="107"/>
-      <c r="G180" s="107"/>
-      <c r="H180" s="107"/>
-      <c r="I180" s="107"/>
-      <c r="J180" s="107"/>
-      <c r="K180" s="107"/>
-      <c r="L180" s="107"/>
+      <c r="C180" s="117"/>
+      <c r="D180" s="117"/>
+      <c r="E180" s="117"/>
+      <c r="F180" s="117"/>
+      <c r="G180" s="117"/>
+      <c r="H180" s="117"/>
+      <c r="I180" s="117"/>
+      <c r="J180" s="117"/>
+      <c r="K180" s="117"/>
+      <c r="L180" s="117"/>
       <c r="M180" s="44"/>
       <c r="N180" s="44"/>
       <c r="O180" s="44"/>
@@ -17649,17 +17605,17 @@
     </row>
     <row r="181" spans="1:28" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="43"/>
-      <c r="B181" s="107"/>
-      <c r="C181" s="107"/>
-      <c r="D181" s="107"/>
-      <c r="E181" s="107"/>
-      <c r="F181" s="107"/>
-      <c r="G181" s="107"/>
-      <c r="H181" s="107"/>
-      <c r="I181" s="107"/>
-      <c r="J181" s="107"/>
-      <c r="K181" s="107"/>
-      <c r="L181" s="107"/>
+      <c r="B181" s="117"/>
+      <c r="C181" s="117"/>
+      <c r="D181" s="117"/>
+      <c r="E181" s="117"/>
+      <c r="F181" s="117"/>
+      <c r="G181" s="117"/>
+      <c r="H181" s="117"/>
+      <c r="I181" s="117"/>
+      <c r="J181" s="117"/>
+      <c r="K181" s="117"/>
+      <c r="L181" s="117"/>
       <c r="M181" s="44"/>
       <c r="N181" s="44"/>
       <c r="O181" s="44"/>
@@ -17675,10 +17631,10 @@
       <c r="D182" s="44"/>
       <c r="E182" s="44"/>
       <c r="F182" s="44"/>
-      <c r="G182" s="108" t="s">
+      <c r="G182" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="H182" s="109"/>
+      <c r="H182" s="108"/>
       <c r="I182" s="45"/>
       <c r="J182" s="44"/>
       <c r="K182" s="44"/>
@@ -17748,7 +17704,7 @@
       <c r="S184" s="44"/>
     </row>
     <row r="185" spans="1:28" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="110" t="s">
+      <c r="A185" s="111" t="s">
         <v>29</v>
       </c>
       <c r="B185" s="56"/>
@@ -17763,7 +17719,7 @@
       <c r="F185" s="31"/>
       <c r="G185" s="17">
         <f>AB186-(AB$8/10)</f>
-        <v>-6.7</v>
+        <v>-4</v>
       </c>
       <c r="H185" s="20">
         <f>AB186-F185</f>
@@ -17771,14 +17727,14 @@
       </c>
       <c r="I185" s="21">
         <f>G185-H185</f>
-        <v>-6.7</v>
+        <v>-4</v>
       </c>
       <c r="AA185" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="111"/>
+      <c r="A186" s="112"/>
       <c r="B186" s="56"/>
       <c r="C186" s="32"/>
       <c r="D186" s="10" t="str">
@@ -17791,7 +17747,7 @@
       <c r="F186" s="32"/>
       <c r="G186" s="18">
         <f>(G185-(AB$8/10))</f>
-        <v>-13.4</v>
+        <v>-8</v>
       </c>
       <c r="H186" s="23">
         <f>H185-F186</f>
@@ -17810,7 +17766,7 @@
       </c>
     </row>
     <row r="187" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="111"/>
+      <c r="A187" s="112"/>
       <c r="B187" s="56"/>
       <c r="C187" s="32"/>
       <c r="D187" s="10" t="str">
@@ -17823,7 +17779,7 @@
       <c r="F187" s="32"/>
       <c r="G187" s="18">
         <f t="shared" ref="G187:G194" si="35">(G186-(AB$8/10))</f>
-        <v>-20.100000000000001</v>
+        <v>-12</v>
       </c>
       <c r="H187" s="29"/>
       <c r="I187" s="22" t="str">
@@ -17832,7 +17788,7 @@
       </c>
     </row>
     <row r="188" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="111"/>
+      <c r="A188" s="112"/>
       <c r="B188" s="56"/>
       <c r="C188" s="32"/>
       <c r="D188" s="10" t="str">
@@ -17845,7 +17801,7 @@
       <c r="F188" s="32"/>
       <c r="G188" s="18">
         <f t="shared" si="35"/>
-        <v>-26.8</v>
+        <v>-16</v>
       </c>
       <c r="H188" s="29"/>
       <c r="I188" s="22" t="str">
@@ -17854,7 +17810,7 @@
       </c>
     </row>
     <row r="189" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="111"/>
+      <c r="A189" s="112"/>
       <c r="B189" s="56"/>
       <c r="C189" s="32"/>
       <c r="D189" s="10" t="str">
@@ -17867,7 +17823,7 @@
       <c r="F189" s="32"/>
       <c r="G189" s="18">
         <f t="shared" si="35"/>
-        <v>-33.5</v>
+        <v>-20</v>
       </c>
       <c r="H189" s="29"/>
       <c r="I189" s="22" t="str">
@@ -17876,7 +17832,7 @@
       </c>
     </row>
     <row r="190" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="111"/>
+      <c r="A190" s="112"/>
       <c r="B190" s="56"/>
       <c r="C190" s="32"/>
       <c r="D190" s="10" t="str">
@@ -17889,7 +17845,7 @@
       <c r="F190" s="32"/>
       <c r="G190" s="18">
         <f t="shared" si="35"/>
-        <v>-40.200000000000003</v>
+        <v>-24</v>
       </c>
       <c r="H190" s="29"/>
       <c r="I190" s="22" t="str">
@@ -17898,7 +17854,7 @@
       </c>
     </row>
     <row r="191" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="111"/>
+      <c r="A191" s="112"/>
       <c r="B191" s="56"/>
       <c r="C191" s="32"/>
       <c r="D191" s="10" t="str">
@@ -17911,7 +17867,7 @@
       <c r="F191" s="32"/>
       <c r="G191" s="18">
         <f t="shared" si="35"/>
-        <v>-46.900000000000006</v>
+        <v>-28</v>
       </c>
       <c r="H191" s="29"/>
       <c r="I191" s="22" t="str">
@@ -17920,7 +17876,7 @@
       </c>
     </row>
     <row r="192" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="111"/>
+      <c r="A192" s="112"/>
       <c r="B192" s="56"/>
       <c r="C192" s="32"/>
       <c r="D192" s="10" t="str">
@@ -17933,7 +17889,7 @@
       <c r="F192" s="32"/>
       <c r="G192" s="18">
         <f t="shared" si="35"/>
-        <v>-53.600000000000009</v>
+        <v>-32</v>
       </c>
       <c r="H192" s="29"/>
       <c r="I192" s="22" t="str">
@@ -17942,7 +17898,7 @@
       </c>
     </row>
     <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="111"/>
+      <c r="A193" s="112"/>
       <c r="B193" s="56"/>
       <c r="C193" s="32"/>
       <c r="D193" s="10" t="str">
@@ -17955,7 +17911,7 @@
       <c r="F193" s="32"/>
       <c r="G193" s="18">
         <f t="shared" si="35"/>
-        <v>-60.300000000000011</v>
+        <v>-36</v>
       </c>
       <c r="H193" s="29"/>
       <c r="I193" s="22" t="str">
@@ -17964,7 +17920,7 @@
       </c>
     </row>
     <row r="194" spans="1:9" s="6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="111"/>
+      <c r="A194" s="112"/>
       <c r="B194" s="56"/>
       <c r="C194" s="32"/>
       <c r="D194" s="10" t="str">
@@ -17975,7 +17931,7 @@
       <c r="F194" s="32"/>
       <c r="G194" s="19">
         <f t="shared" si="35"/>
-        <v>-67.000000000000014</v>
+        <v>-40</v>
       </c>
       <c r="H194" s="29"/>
       <c r="I194" s="22" t="str">
@@ -17984,7 +17940,7 @@
       </c>
     </row>
     <row r="195" spans="1:9" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="111"/>
+      <c r="A195" s="112"/>
       <c r="B195" s="56"/>
       <c r="C195" s="32"/>
       <c r="D195" s="10" t="str">
@@ -17998,7 +17954,7 @@
       <c r="I195" s="49"/>
     </row>
     <row r="196" spans="1:9" s="6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="111"/>
+      <c r="A196" s="112"/>
       <c r="B196" s="56"/>
       <c r="C196" s="32"/>
       <c r="D196" s="10" t="str">
@@ -18012,7 +17968,7 @@
       <c r="I196" s="50"/>
     </row>
     <row r="197" spans="1:9" s="6" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="111"/>
+      <c r="A197" s="112"/>
       <c r="B197" s="56"/>
       <c r="C197" s="32"/>
       <c r="D197" s="10" t="str">
@@ -18031,47 +17987,47 @@
       </c>
     </row>
     <row r="198" spans="1:9" s="6" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="111"/>
+      <c r="A198" s="112"/>
       <c r="B198" s="56"/>
       <c r="C198" s="32"/>
       <c r="D198" s="10" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="E198" s="113" t="str">
+      <c r="E198" s="109" t="str">
         <f>IF(F194&lt;&gt;"","# Points afgetikt aan het eind van de sprint:","")</f>
         <v/>
       </c>
-      <c r="F198" s="114"/>
-      <c r="G198" s="114"/>
-      <c r="H198" s="114"/>
+      <c r="F198" s="110"/>
+      <c r="G198" s="110"/>
+      <c r="H198" s="110"/>
       <c r="I198" s="12" t="str">
         <f>IF(F194&lt;&gt;"",SUM(F185:F194),"")</f>
         <v/>
       </c>
     </row>
     <row r="199" spans="1:9" s="6" customFormat="1" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="111"/>
+      <c r="A199" s="112"/>
       <c r="B199" s="56"/>
       <c r="C199" s="32"/>
       <c r="D199" s="10" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="E199" s="115" t="str">
+      <c r="E199" s="114" t="str">
         <f>IF(F194&lt;&gt;"","Dit moesten er zijn:","")</f>
         <v/>
       </c>
-      <c r="F199" s="116"/>
-      <c r="G199" s="116"/>
-      <c r="H199" s="116"/>
+      <c r="F199" s="115"/>
+      <c r="G199" s="115"/>
+      <c r="H199" s="115"/>
       <c r="I199" s="16" t="str">
         <f>IF(F194&lt;&gt;"",AB186,"")</f>
         <v/>
       </c>
     </row>
     <row r="200" spans="1:9" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="111"/>
+      <c r="A200" s="112"/>
       <c r="B200" s="56"/>
       <c r="C200" s="32"/>
       <c r="D200" s="10" t="str">
@@ -18088,7 +18044,7 @@
       </c>
     </row>
     <row r="201" spans="1:9" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="111"/>
+      <c r="A201" s="112"/>
       <c r="B201" s="34"/>
       <c r="C201" s="32"/>
       <c r="D201" s="10" t="str">
@@ -18102,7 +18058,7 @@
       <c r="I201" s="50"/>
     </row>
     <row r="202" spans="1:9" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="111"/>
+      <c r="A202" s="112"/>
       <c r="B202" s="34"/>
       <c r="C202" s="32"/>
       <c r="D202" s="10" t="str">
@@ -18116,7 +18072,7 @@
       <c r="I202" s="50"/>
     </row>
     <row r="203" spans="1:9" s="6" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="111"/>
+      <c r="A203" s="112"/>
       <c r="B203" s="34"/>
       <c r="C203" s="32"/>
       <c r="D203" s="10" t="str">
@@ -18130,7 +18086,7 @@
       <c r="I203" s="50"/>
     </row>
     <row r="204" spans="1:9" s="2" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="112"/>
+      <c r="A204" s="113"/>
       <c r="B204" s="34"/>
       <c r="C204" s="32"/>
       <c r="D204" s="11" t="str">
@@ -18151,46 +18107,46 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="xvw55rBl+8QauwDbqXfPTEJvlFDUCVQW9eBF4D1fCPDMzZnBE0eg23U/adjRGpGtDkno/gEp3o8WBaDX9CrDpg==" saltValue="kVJ3wM2y/GPu2SWvmMPnkg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="40">
+    <mergeCell ref="B180:L181"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="A185:A204"/>
+    <mergeCell ref="E198:H198"/>
+    <mergeCell ref="E199:H199"/>
+    <mergeCell ref="B155:L156"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="A160:A179"/>
+    <mergeCell ref="E173:H173"/>
+    <mergeCell ref="E174:H174"/>
+    <mergeCell ref="B130:L131"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="A135:A154"/>
+    <mergeCell ref="E148:H148"/>
+    <mergeCell ref="E149:H149"/>
+    <mergeCell ref="B105:L106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="A110:A129"/>
+    <mergeCell ref="E123:H123"/>
+    <mergeCell ref="E124:H124"/>
+    <mergeCell ref="B79:L80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="A84:A104"/>
+    <mergeCell ref="E98:H98"/>
+    <mergeCell ref="E99:H99"/>
+    <mergeCell ref="B53:L54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="A58:A78"/>
+    <mergeCell ref="E72:H72"/>
+    <mergeCell ref="E73:H73"/>
+    <mergeCell ref="B27:L28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A32:A52"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="E47:H47"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="A6:A26"/>
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="B1:L2"/>
-    <mergeCell ref="B27:L28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A32:A52"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="B53:L54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="A58:A78"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="E73:H73"/>
-    <mergeCell ref="B79:L80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="A84:A104"/>
-    <mergeCell ref="E98:H98"/>
-    <mergeCell ref="E99:H99"/>
-    <mergeCell ref="B105:L106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="A110:A129"/>
-    <mergeCell ref="E123:H123"/>
-    <mergeCell ref="E124:H124"/>
-    <mergeCell ref="B130:L131"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="A135:A154"/>
-    <mergeCell ref="E148:H148"/>
-    <mergeCell ref="E149:H149"/>
-    <mergeCell ref="B155:L156"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="A160:A179"/>
-    <mergeCell ref="E173:H173"/>
-    <mergeCell ref="E174:H174"/>
-    <mergeCell ref="B180:L181"/>
-    <mergeCell ref="G182:H182"/>
-    <mergeCell ref="A185:A204"/>
-    <mergeCell ref="E198:H198"/>
-    <mergeCell ref="E199:H199"/>
   </mergeCells>
   <conditionalFormatting sqref="I205:I1048576 I3:I6 I8:I16">
     <cfRule type="cellIs" dxfId="35" priority="57" operator="lessThan">
@@ -18386,15 +18342,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -18443,29 +18390,30 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93DCA063-1453-446E-9A57-D30E1A450384}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AEADA43-0273-439D-8CDD-FCADBE775C5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69266CD-281A-4B62-8FE6-339EF1280C12}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18478,4 +18426,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AEADA43-0273-439D-8CDD-FCADBE775C5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentatie/persoonlijke burndown charts/20171121_burndownchart_per_ll Max .xlsx
+++ b/Documentatie/persoonlijke burndown charts/20171121_burndownchart_per_ll Max .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edurocwb-my.sharepoint.com/personal/d230195_edu_rocwb_nl/Documents/Periode_6/project/Asteroids/Documentatie/persoonlijke burndown charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="103_{12861CA0-3729-4FC6-B6FB-361A4ED07662}" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{C0B87D51-9F82-4705-BF89-4158E6820DAF}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="103_{12861CA0-3729-4FC6-B6FB-361A4ED07662}" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{DD148BBC-0E7B-4DCF-9528-FBEC742CE096}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2581,10 +2581,10 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -4663,10 +4663,10 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -5103,10 +5103,10 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -5543,10 +5543,10 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -5983,10 +5983,10 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -13515,7 +13515,7 @@
   <dimension ref="A1:AI204"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13985,7 +13985,7 @@
         <v>51</v>
       </c>
       <c r="F12" s="75">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G12" s="18">
         <f t="shared" si="3"/>
@@ -13993,11 +13993,11 @@
       </c>
       <c r="H12" s="96">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I12" s="22">
         <f t="shared" ref="I12:I16" si="5">IF(F12="","",G12-H12)</f>
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
@@ -14024,11 +14024,11 @@
       </c>
       <c r="H13" s="96">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I13" s="22">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
@@ -14047,7 +14047,7 @@
         <v>53</v>
       </c>
       <c r="F14" s="75">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G14" s="18">
         <f t="shared" si="3"/>
